--- a/Requirement.xlsx
+++ b/Requirement.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VK\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FB03C43-23AF-4765-9D68-4EEA3E2E7B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E2F9AD-A09D-4A9F-AB46-C9444F57D32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45EBA67E-1FFA-4584-9E55-CD49A95056FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Project: Smartphone-Based Control of Common Electrical Devices</t>
   </si>
@@ -56,12 +45,6 @@
     <t>1.1.3 The system shall be controlled via a mobile application.</t>
   </si>
   <si>
-    <t>1.2 The product shall support a wide range of devices, from low-power to high-power appliances.</t>
-  </si>
-  <si>
-    <t>1.2.1 The system shall control small devices of a few dozen watts to large devices of up to 6000 watts.</t>
-  </si>
-  <si>
     <t>2. The product shall include a timer function.</t>
   </si>
   <si>
@@ -138,6 +121,9 @@
   </si>
   <si>
     <t>7.2 The system shall encrypt data to protect user information.</t>
+  </si>
+  <si>
+    <t>1.2 The product shall support a wide range of devices, utilizing a 220V-50Hz mains input and controlling the output via relay switching.</t>
   </si>
 </sst>
 </file>
@@ -201,21 +187,21 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,55 +519,49 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
@@ -603,14 +583,10 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -621,49 +597,49 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -677,33 +653,33 @@
       <c r="L12" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -714,18 +690,18 @@
       <c r="I16" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -736,7 +712,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -749,7 +725,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -762,7 +738,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -773,18 +749,18 @@
       <c r="I22" s="3"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -795,7 +771,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -808,7 +784,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -820,7 +796,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -831,13 +807,13 @@
       <c r="I28" s="3"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>24</v>
+      <c r="A30" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -850,7 +826,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -860,7 +836,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -874,7 +850,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -887,7 +863,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -901,16 +877,16 @@
       <c r="L35" s="3"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -921,7 +897,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -936,7 +912,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -945,38 +921,37 @@
       <c r="G40" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="30">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="C34:K34"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="B35:L35"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="C39:M39"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="C33:L33"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
